--- a/medicine/Enfance/Enfant_posthume/Enfant_posthume.xlsx
+++ b/medicine/Enfance/Enfant_posthume/Enfant_posthume.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un enfant posthume est un enfant né après le décès de son père ou, très exceptionnellement, après le décès de sa mère.
 </t>
@@ -513,20 +525,195 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Argéades
-Alexandre IV, roi de Macédoine
-Capétiens
-Alphonse XIII, roi d'Espagne puis prétendant au trône de France
+          <t>Argéades</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Alexandre IV, roi de Macédoine</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Enfant_posthume</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enfant_posthume</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Enfants posthumes célèbres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Capétiens</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alphonse XIII, roi d'Espagne puis prétendant au trône de France
 Henri d'Artois, prétendant au trône de France
-Jean Ier le Posthume, roi de France et de Navarre
-Carolingiens
-Charles III le Simple, roi des Francs
-Maison de Hauteville
-Constance de Hauteville[1] (1154-1198), mère de Frédéric II (empereur des Romains)
-Maison Tudor
-Henri VII, roi d'Angleterre.
-Maison de Médicis
-Jules de Médicis, élu pape sous le nom de Clément VII.</t>
+Jean Ier le Posthume, roi de France et de Navarre</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Enfant_posthume</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enfant_posthume</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Enfants posthumes célèbres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carolingiens</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Charles III le Simple, roi des Francs</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Enfant_posthume</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enfant_posthume</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Enfants posthumes célèbres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Maison de Hauteville</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Constance de Hauteville (1154-1198), mère de Frédéric II (empereur des Romains)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Enfant_posthume</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enfant_posthume</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Enfants posthumes célèbres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Maison Tudor</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Henri VII, roi d'Angleterre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Enfant_posthume</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enfant_posthume</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Enfants posthumes célèbres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Maison de Médicis</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jules de Médicis, élu pape sous le nom de Clément VII.</t>
         </is>
       </c>
     </row>
